--- a/biology/Biochimie/Cétohexokinase/Cétohexokinase.xlsx
+++ b/biology/Biochimie/Cétohexokinase/Cétohexokinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9tohexokinase</t>
+          <t>Cétohexokinase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cétohexokinase, ou fructokinase hépatique (anciennement fructokinase du foie[1]), est une phosphotransférase qui catalyse la réaction[2] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cétohexokinase, ou fructokinase hépatique (anciennement fructokinase du foie), est une phosphotransférase qui catalyse la réaction :
 ATP + D-fructose  
         ⇌
     {\displaystyle \rightleftharpoons }
   ADP + D-fructose-1-phosphate.
-Le D-sorbose, le D-tagatose, le 5-déshydro-D-fructose et un certain nombre d'autres cétoses et leurs analogues sont également susceptibles d'être traités comme substrats par cette enzyme[3].
+Le D-sorbose, le D-tagatose, le 5-déshydro-D-fructose et un certain nombre d'autres cétoses et leurs analogues sont également susceptibles d'être traités comme substrats par cette enzyme.
 Un déficit d'activité de la fructokinase hépatique, qui assure la première étape de l'assimilation du fructose chez les vertébrés, est responsable de la fructosurie (en). 
 </t>
         </is>
